--- a/webroot/player_template.xlsx
+++ b/webroot/player_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>チーム</t>
     <phoneticPr fontId="1"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けが</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,16 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -508,6 +514,9 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/webroot/player_template.xlsx
+++ b/webroot/player_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.33.14\vagrant\game_next\webroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.33.15\fusic\htdocs\game\webroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBB72E-2491-419B-B66B-0579866A1C85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="10140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>チーム</t>
     <phoneticPr fontId="1"/>
@@ -128,13 +129,27 @@
   </si>
   <si>
     <t>けが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四球</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P四球</t>
+    <rPh sb="1" eb="3">
+      <t>シキュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,19 +475,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -517,6 +532,12 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
